--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/主营业务收入.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/主营业务收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>146.58262</v>
-      </c>
-      <c r="C2" t="n">
-        <v>227.47751</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.38792</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.14868</v>
-      </c>
-      <c r="F2" t="n">
-        <v>96.05562999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>267.68343</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19.54043</v>
-      </c>
-      <c r="I2" t="n">
-        <v>70.08932</v>
-      </c>
-      <c r="J2" t="n">
-        <v>38.21272</v>
-      </c>
-      <c r="K2" t="n">
-        <v>207.06017</v>
-      </c>
-      <c r="L2" t="n">
-        <v>66.37188999999999</v>
-      </c>
-      <c r="M2" t="n">
-        <v>52.62341</v>
-      </c>
-      <c r="N2" t="n">
-        <v>258.98729</v>
-      </c>
-      <c r="O2" t="n">
-        <v>179.81702</v>
-      </c>
-      <c r="P2" t="n">
-        <v>19.73409</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>260.80325</v>
-      </c>
-      <c r="R2" t="n">
-        <v>135.96227</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>46.90714</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.28312</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.43001</v>
-      </c>
-      <c r="W2" t="n">
-        <v>18.10181</v>
-      </c>
-      <c r="X2" t="n">
-        <v>18.21852</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>103.45407</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>311.63938</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>136.36282</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>48.53416</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2.47323</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4791.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>464.33057</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.25411</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>120.57222</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>305.21731</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>337.27519</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>28.90274</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>117.79502</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>359.10486</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>72.81578</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>210.40807</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>14.87982</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>222.86899</v>
-      </c>
-      <c r="C3" t="n">
-        <v>380.90834</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.22766</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.49884</v>
-      </c>
-      <c r="F3" t="n">
-        <v>164.86308</v>
-      </c>
-      <c r="G3" t="n">
-        <v>504.8858</v>
-      </c>
-      <c r="H3" t="n">
-        <v>79.06847999999999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>108.01285</v>
-      </c>
-      <c r="J3" t="n">
-        <v>64.91831000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>335.65454</v>
-      </c>
-      <c r="L3" t="n">
-        <v>98.90465</v>
-      </c>
-      <c r="M3" t="n">
-        <v>97.89521000000001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>455.78863</v>
-      </c>
-      <c r="O3" t="n">
-        <v>260.54419</v>
-      </c>
-      <c r="P3" t="n">
-        <v>31.28911</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>412.40605</v>
-      </c>
-      <c r="R3" t="n">
-        <v>219.77385</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.10789</v>
-      </c>
-      <c r="T3" t="n">
-        <v>73.74093000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.78733</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6.90114</v>
-      </c>
-      <c r="W3" t="n">
-        <v>32.62907</v>
-      </c>
-      <c r="X3" t="n">
-        <v>23.49332</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>177.4875</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>505.6221</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>230.16025</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>59.46082</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.08191</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7982.43</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>874.67382</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.41345</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>219.41616</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>527.24168</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>517.91968</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>37.4475</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>174.00356</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>573.59997</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>111.13644</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>321.56168</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>26.0335</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>344.86487</v>
-      </c>
-      <c r="C4" t="n">
-        <v>580.58817</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.3229</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.35733</v>
-      </c>
-      <c r="F4" t="n">
-        <v>225.20128</v>
-      </c>
-      <c r="G4" t="n">
-        <v>747.85598</v>
-      </c>
-      <c r="H4" t="n">
-        <v>121.62314</v>
-      </c>
-      <c r="I4" t="n">
-        <v>163.17026</v>
-      </c>
-      <c r="J4" t="n">
-        <v>99.75277</v>
-      </c>
-      <c r="K4" t="n">
-        <v>517.4737699999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>131.69212</v>
-      </c>
-      <c r="M4" t="n">
-        <v>137.25671</v>
-      </c>
-      <c r="N4" t="n">
-        <v>689.40845</v>
-      </c>
-      <c r="O4" t="n">
-        <v>378.07071</v>
-      </c>
-      <c r="P4" t="n">
-        <v>40.68312</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>607.97099</v>
-      </c>
-      <c r="R4" t="n">
-        <v>287.10001</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>103.24874</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.29757</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.90427</v>
-      </c>
-      <c r="W4" t="n">
-        <v>61.42854</v>
-      </c>
-      <c r="X4" t="n">
-        <v>21.34157</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>246.75005</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>747.01807</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>360.35618</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>119.89861</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>11971.63</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1377.99664</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.79928</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>321.28377</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>781.93297</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>796.4382900000001</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>65.68706</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>250.70994</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>850.2176899999999</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>142.93534</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>529.20208</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>45.79082</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
